--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1143688.613531845</v>
+        <v>-1080813.605745492</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17372041.81341184</v>
+        <v>16759483.43569379</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484453</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10111158.77681556</v>
+        <v>10080510.19727427</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>220.1767649846775</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>291.0006184312287</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>164.5044301308735</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.35092438269605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.6880650501441</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -956,7 +956,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>170.7762299248955</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>151.4873888924988</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>34.96581069836606</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1111,13 +1111,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1136,16 +1136,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>247.4379850042035</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>45.10878876340928</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.3121183739147</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>20.28369113775187</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>268.9101755711086</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>176.4906962417491</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,10 +1588,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>129.7139627068449</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>152.0176216574255</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>200.3474696251924</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170844</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>143.3627470649797</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>331.2162466687997</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170754</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>76.7965281237575</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>47.61404849749845</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>56.72042565247631</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.0567773522574</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,10 +3202,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432443</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934458</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3439,10 +3439,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.96793274293517</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3676,10 +3676,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277812</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432469</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934458</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3800,7 +3800,7 @@
         <v>342.7550702267644</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043299</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X41" t="n">
         <v>398.715328447735</v>
@@ -3913,10 +3913,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934458</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4150,10 +4150,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934458</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>552.7406073489124</v>
+        <v>1571.10956023096</v>
       </c>
       <c r="C2" t="n">
-        <v>518.6385385727397</v>
+        <v>1142.527885968228</v>
       </c>
       <c r="D2" t="n">
-        <v>486.7691577875882</v>
+        <v>713.9462117054968</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>684.2118709041961</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>256.3444413134038</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1403.243411463015</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1402.428360914452</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X2" t="n">
-        <v>1387.326301534167</v>
+        <v>1597.614446335406</v>
       </c>
       <c r="Y2" t="n">
-        <v>979.0401778338202</v>
+        <v>1593.368726675464</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4407,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
         <v>319.8519551513677</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>947.4105542393174</v>
+        <v>288.4816106254103</v>
       </c>
       <c r="C4" t="n">
-        <v>774.8488427225424</v>
+        <v>288.4816106254103</v>
       </c>
       <c r="D4" t="n">
-        <v>608.9708499240651</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E4" t="n">
-        <v>439.2128461748023</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4489,22 +4489,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.227921950848</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>1410.227921950848</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X4" t="n">
-        <v>1164.83616728426</v>
+        <v>288.4816106254103</v>
       </c>
       <c r="Y4" t="n">
-        <v>1139.229172958305</v>
+        <v>288.4816106254103</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1113.673167513736</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1079.571098737563</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1047.701717952412</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>1017.967377151111</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>590.0999475603192</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9402858935069</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81013133672317</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>632.5290338758936</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.2716406787</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.014247481507</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.513033440101</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.667098193158</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.015224376995</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2586.015224376995</v>
       </c>
       <c r="U5" t="n">
-        <v>1134.24202645431</v>
+        <v>2326.792921694012</v>
       </c>
       <c r="V5" t="n">
-        <v>771.6250763881362</v>
+        <v>1964.175971627838</v>
       </c>
       <c r="W5" t="n">
-        <v>599.123834039757</v>
+        <v>1559.320517038872</v>
       </c>
       <c r="X5" t="n">
-        <v>584.0217746594717</v>
+        <v>1544.218457658586</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.7760549995292</v>
+        <v>1539.972737998644</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5650869551559</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1086257917983</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0183369383515</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.8979222653052</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5140838814668</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.1289941476507</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="M6" t="n">
-        <v>453.9965675465116</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="N6" t="n">
-        <v>874.0494664914149</v>
+        <v>277.975111742719</v>
       </c>
       <c r="O6" t="n">
-        <v>1294.102365436318</v>
+        <v>938.7177185455256</v>
       </c>
       <c r="P6" t="n">
-        <v>1294.102365436318</v>
+        <v>1599.460325348332</v>
       </c>
       <c r="Q6" t="n">
-        <v>1697.183430080417</v>
+        <v>1599.460325348332</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.633103442672</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.177665891055</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.999022221657</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.662475221625</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.544957283624</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2222030168184</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3547672556983</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8689880349191</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>764.7921222294549</v>
+        <v>762.5013257079709</v>
       </c>
       <c r="C7" t="n">
-        <v>592.2304107126798</v>
+        <v>589.9396141911958</v>
       </c>
       <c r="D7" t="n">
-        <v>592.2304107126798</v>
+        <v>424.0616213927185</v>
       </c>
       <c r="E7" t="n">
-        <v>439.2128461748023</v>
+        <v>254.3036176434558</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>254.3036176434558</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>88.71234266928343</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.973027128553</v>
       </c>
       <c r="K7" t="n">
-        <v>341.7616130750586</v>
+        <v>414.3456280261843</v>
       </c>
       <c r="L7" t="n">
-        <v>341.7616130750586</v>
+        <v>832.5555097941453</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.039376975058</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.298180132703</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2153.967429358484</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.474323328826</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.667098193158</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2669.667098193158</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.425729491155</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2264.54628306961</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1986.113282322715</v>
       </c>
       <c r="V7" t="n">
-        <v>992.2117929153466</v>
+        <v>1699.157774193146</v>
       </c>
       <c r="W7" t="n">
-        <v>992.2117929153466</v>
+        <v>1427.131369779437</v>
       </c>
       <c r="X7" t="n">
-        <v>992.2117929153466</v>
+        <v>1181.73961511285</v>
       </c>
       <c r="Y7" t="n">
-        <v>764.7921222294549</v>
+        <v>954.319944426958</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1190.720988517726</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>752.5785157011492</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>502.6411571110446</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>472.9068163097438</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>449.0797907593556</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>47.68195938261948</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>47.68195938261948</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>47.68195938261948</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>47.68195938261948</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>47.68195938261948</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>47.68195938261948</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>488.3166236994901</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1078.380871059406</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1078.380871059406</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1668.445118419322</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.943904377917</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2384.097969130974</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2300.446095314811</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2300.446095314811</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2041.223792631828</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2041.223792631828</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2040.408742083265</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>2025.30668270298</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.020559002633</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>553.8537043739123</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>447.3972432105546</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>352.3069543571078</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>258.1865396840615</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>174.8027013002231</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>89.417611566407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>47.68195938261948</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>47.68195938261948</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>47.68195938261948</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>47.68195938261948</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>47.68195938261948</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>47.68195938261948</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>47.68195938261948</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>462.9457567750971</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1053.010004135013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1593.748942767089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1710.921720861428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1647.466283309811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1517.287639640413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1340.951092640381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.833574702381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>956.5108204355747</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>801.6433846744546</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>675.1576054536754</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>898.1779964595507</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C10" t="n">
-        <v>725.6162849427757</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D10" t="n">
-        <v>559.7382921442984</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E10" t="n">
-        <v>389.9802883950356</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>213.2732343567918</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>47.68195938261948</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>47.68195938261948</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>47.68195938261948</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>134.2616445473093</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>409.0200991184449</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>827.229980886406</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1286.713848067319</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1448.729051070518</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1868.3983002963</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2215.905194266642</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2384.097969130974</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2362.680147836346</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2203.438779134342</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1957.559332712798</v>
+        <v>2468.913059527977</v>
       </c>
       <c r="U10" t="n">
-        <v>1957.559332712798</v>
+        <v>2190.480058781082</v>
       </c>
       <c r="V10" t="n">
-        <v>1670.603824583228</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W10" t="n">
-        <v>1398.57742016952</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X10" t="n">
-        <v>1153.185665502932</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y10" t="n">
-        <v>925.7659948170403</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2080.937550268281</v>
+        <v>2524.205911056827</v>
       </c>
       <c r="C11" t="n">
-        <v>1642.795077451704</v>
+        <v>2086.06343824025</v>
       </c>
       <c r="D11" t="n">
-        <v>1642.795077451704</v>
+        <v>1650.153653414695</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.02033261</v>
+        <v>1216.37890857299</v>
       </c>
       <c r="F11" t="n">
-        <v>781.1529030192074</v>
+        <v>788.5114789821978</v>
       </c>
       <c r="G11" t="n">
-        <v>379.7550716424714</v>
+        <v>387.1136476054616</v>
       </c>
       <c r="H11" t="n">
-        <v>90.62491708568764</v>
+        <v>97.98349304867786</v>
       </c>
       <c r="I11" t="n">
-        <v>90.20812771282765</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J11" t="n">
-        <v>90.20812771282765</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="K11" t="n">
-        <v>90.20812771282765</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="L11" t="n">
-        <v>90.20812771282765</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="M11" t="n">
-        <v>869.938413079787</v>
+        <v>1228.461808239093</v>
       </c>
       <c r="N11" t="n">
-        <v>1986.263993526029</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="O11" t="n">
-        <v>2966.443660096335</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P11" t="n">
-        <v>3794.753534929731</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q11" t="n">
-        <v>4341.252320888326</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R11" t="n">
-        <v>4510.406385641382</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S11" t="n">
-        <v>4426.754511825219</v>
+        <v>4794.68330997473</v>
       </c>
       <c r="T11" t="n">
-        <v>4206.687284698258</v>
+        <v>4574.616082847769</v>
       </c>
       <c r="U11" t="n">
-        <v>3947.464982015274</v>
+        <v>4315.393780164785</v>
       </c>
       <c r="V11" t="n">
-        <v>3584.848031949101</v>
+        <v>3952.776830098612</v>
       </c>
       <c r="W11" t="n">
-        <v>3179.992577360134</v>
+        <v>3547.921375509645</v>
       </c>
       <c r="X11" t="n">
-        <v>2760.850113939445</v>
+        <v>3128.778912088956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2352.563990239099</v>
+        <v>2950.505481541735</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>596.3798727041204</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C12" t="n">
-        <v>489.9234115407627</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D12" t="n">
-        <v>394.833122687316</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E12" t="n">
-        <v>300.7127080142697</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F12" t="n">
-        <v>217.3288696304313</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G12" t="n">
-        <v>131.9437798966152</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H12" t="n">
-        <v>90.20812771282765</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I12" t="n">
-        <v>90.20812771282765</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J12" t="n">
-        <v>90.20812771282765</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="K12" t="n">
-        <v>90.20812771282765</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="L12" t="n">
-        <v>90.20812771282765</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="M12" t="n">
-        <v>90.20812771282765</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="N12" t="n">
-        <v>90.20812771282765</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="O12" t="n">
-        <v>1104.00973753113</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P12" t="n">
-        <v>1104.00973753113</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q12" t="n">
-        <v>1644.748676163205</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R12" t="n">
-        <v>1753.447889191636</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S12" t="n">
-        <v>1689.992451640019</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T12" t="n">
-        <v>1559.813807970621</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U12" t="n">
-        <v>1383.477260970589</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V12" t="n">
-        <v>1184.359743032589</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W12" t="n">
-        <v>999.0369887657828</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X12" t="n">
-        <v>844.1695530046628</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y12" t="n">
-        <v>717.6837737838836</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>940.7041647897588</v>
+        <v>1036.722689978074</v>
       </c>
       <c r="C13" t="n">
-        <v>768.1424532729837</v>
+        <v>864.1609784612987</v>
       </c>
       <c r="D13" t="n">
-        <v>602.2644604745064</v>
+        <v>698.2829856628214</v>
       </c>
       <c r="E13" t="n">
-        <v>432.5064567252438</v>
+        <v>528.5249819135587</v>
       </c>
       <c r="F13" t="n">
-        <v>255.799402687</v>
+        <v>351.8179278753149</v>
       </c>
       <c r="G13" t="n">
-        <v>90.20812771282765</v>
+        <v>186.2266529011425</v>
       </c>
       <c r="H13" t="n">
-        <v>90.20812771282765</v>
+        <v>186.2266529011425</v>
       </c>
       <c r="I13" t="n">
-        <v>90.20812771282765</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J13" t="n">
-        <v>176.7878128775175</v>
+        <v>184.1463888405077</v>
       </c>
       <c r="K13" t="n">
-        <v>451.5462674486531</v>
+        <v>458.9048434116433</v>
       </c>
       <c r="L13" t="n">
-        <v>869.7561492166142</v>
+        <v>877.1147251796043</v>
       </c>
       <c r="M13" t="n">
-        <v>1329.240016397527</v>
+        <v>1336.598592360517</v>
       </c>
       <c r="N13" t="n">
-        <v>1771.498819555172</v>
+        <v>1778.857395518162</v>
       </c>
       <c r="O13" t="n">
-        <v>2191.168068780953</v>
+        <v>2198.526644743943</v>
       </c>
       <c r="P13" t="n">
-        <v>2538.674962751295</v>
+        <v>2546.033538714285</v>
       </c>
       <c r="Q13" t="n">
-        <v>2706.867737615627</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="R13" t="n">
-        <v>2706.867737615627</v>
+        <v>2692.808492283989</v>
       </c>
       <c r="S13" t="n">
-        <v>2547.626368913624</v>
+        <v>2692.808492283989</v>
       </c>
       <c r="T13" t="n">
-        <v>2301.746922492079</v>
+        <v>2446.929045862444</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.313921745184</v>
+        <v>2168.496045115549</v>
       </c>
       <c r="V13" t="n">
-        <v>1736.358413615614</v>
+        <v>1881.54053698598</v>
       </c>
       <c r="W13" t="n">
-        <v>1605.334208861226</v>
+        <v>1609.514132572271</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.942454194638</v>
+        <v>1455.960979382953</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.522783508746</v>
+        <v>1228.541308697061</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2521.541471688799</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2083.398998872222</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1647.489214046666</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1213.714469204961</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>785.8470396141693</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>384.4492082374331</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>95.31905368064942</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>94.90226430778942</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K14" t="n">
-        <v>484.6907905857145</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L14" t="n">
-        <v>484.6907905857145</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M14" t="n">
-        <v>1641.738625796265</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>2767.469609232712</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3747.649275803019</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4575.959150636415</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4575.959150636415</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4745.113215389471</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4745.113215389471</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4745.113215389471</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4542.742033949882</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4180.125083883709</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.269629294742</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3356.127165874053</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2947.841042173706</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>601.0740092990823</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>494.6175481357245</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>399.5272592822778</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>305.4068446092315</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>222.0230062253931</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>136.637916491577</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O15" t="n">
-        <v>1108.703874126091</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P15" t="n">
-        <v>1217.403087154523</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1758.142025786598</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1758.142025786598</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1694.686588234981</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1564.507944565583</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1388.171397565551</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1189.053879627551</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1003.731125360745</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>848.8636895996246</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3779103788454</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1173.960424919671</v>
+        <v>811.7546776883955</v>
       </c>
       <c r="C16" t="n">
-        <v>1001.398713402896</v>
+        <v>639.1929661716205</v>
       </c>
       <c r="D16" t="n">
-        <v>835.5207206044186</v>
+        <v>473.3149733731432</v>
       </c>
       <c r="E16" t="n">
-        <v>665.7627168551558</v>
+        <v>303.5569696238804</v>
       </c>
       <c r="F16" t="n">
-        <v>489.0556628169119</v>
+        <v>126.8499155856366</v>
       </c>
       <c r="G16" t="n">
-        <v>323.4643878427396</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>183.5622135331141</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>181.4819494724793</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>456.2404040436148</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>874.4502858115759</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1333.934152992489</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N16" t="n">
-        <v>1776.192956150133</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O16" t="n">
-        <v>2195.862205375915</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P16" t="n">
-        <v>2543.369099346256</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2711.561874210589</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2711.561874210589</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S16" t="n">
-        <v>2552.320505508585</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T16" t="n">
-        <v>2306.44105908704</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U16" t="n">
-        <v>2028.008058340146</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V16" t="n">
-        <v>2028.008058340146</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W16" t="n">
-        <v>1755.981653926437</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X16" t="n">
-        <v>1510.58989925985</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y16" t="n">
-        <v>1365.779043638658</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2420.193552185263</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1982.051079368687</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1647.489214046666</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1213.714469204961</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>785.8470396141693</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>384.4492082374332</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>95.31905368064942</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>94.90226430778942</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>94.90226430778942</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>94.90226430778942</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>1251.95009951834</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2377.681082954787</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3357.860749525094</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4186.17062435849</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4732.669410317085</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4745.113215389471</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4661.461341573308</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4441.394114446347</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4441.394114446347</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4078.777164380173</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3673.921709791207</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3254.779246370518</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2846.493122670171</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>601.0740092990823</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>494.6175481357245</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>399.5272592822778</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>305.4068446092315</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>222.0230062253931</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>136.637916491577</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>94.90226430778942</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>94.90226430778942</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K18" t="n">
-        <v>94.90226430778942</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L18" t="n">
-        <v>94.90226430778942</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M18" t="n">
-        <v>94.90226430778942</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N18" t="n">
-        <v>94.90226430778942</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O18" t="n">
-        <v>280.507142580985</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
-        <v>1100.230309060183</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1640.969247692259</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1758.142025786598</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1694.686588234981</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1564.507944565583</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1388.171397565551</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1189.053879627551</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1003.731125360745</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>848.8636895996246</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3779103788454</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.3983013847204</v>
+        <v>811.7546776883946</v>
       </c>
       <c r="C19" t="n">
-        <v>772.8365898679453</v>
+        <v>639.1929661716196</v>
       </c>
       <c r="D19" t="n">
-        <v>606.9585970694682</v>
+        <v>473.3149733731423</v>
       </c>
       <c r="E19" t="n">
-        <v>437.2005933202054</v>
+        <v>303.5569696238795</v>
       </c>
       <c r="F19" t="n">
-        <v>260.4935392819616</v>
+        <v>126.8499155856357</v>
       </c>
       <c r="G19" t="n">
-        <v>94.90226430778921</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>181.4819494724793</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>456.2404040436148</v>
+        <v>463.5989800066082</v>
       </c>
       <c r="L19" t="n">
-        <v>874.4502858115759</v>
+        <v>881.8088617745692</v>
       </c>
       <c r="M19" t="n">
-        <v>1333.934152992489</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N19" t="n">
-        <v>1776.192956150133</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2195.862205375915</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P19" t="n">
-        <v>2543.369099346256</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q19" t="n">
-        <v>2711.561874210589</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R19" t="n">
-        <v>2711.561874210589</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S19" t="n">
-        <v>2693.322705167905</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T19" t="n">
-        <v>2447.44325874636</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U19" t="n">
-        <v>2169.010257999465</v>
+        <v>2035.366634303139</v>
       </c>
       <c r="V19" t="n">
-        <v>1882.054749869895</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W19" t="n">
-        <v>1610.028345456187</v>
+        <v>1476.384721759861</v>
       </c>
       <c r="X19" t="n">
-        <v>1364.636590789599</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1137.216920103707</v>
+        <v>1003.573296407382</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2160.97124950228</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2083.398998872222</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1647.489214046666</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1213.714469204961</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>785.8470396141693</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>384.4492082374332</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>95.31905368064942</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>94.90226430778942</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>94.90226430778942</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L20" t="n">
-        <v>94.90226430778942</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M20" t="n">
-        <v>1251.95009951834</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2377.681082954787</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3357.860749525094</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4186.17062435849</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4575.959150636415</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>4745.113215389471</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>4661.461341573308</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4441.394114446347</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.171811763364</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>3819.55486169719</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3414.699407108224</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>2995.556943687534</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2587.270819987188</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>601.0740092990823</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>494.6175481357245</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>399.5272592822778</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>305.4068446092315</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>222.0230062253931</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>136.637916491577</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>280.507142580985</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
-        <v>1100.230309060183</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1640.969247692259</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1758.142025786598</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1694.686588234981</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1564.507944565583</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1388.171397565551</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1189.053879627551</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1003.731125360745</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>848.8636895996246</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.3779103788454</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>963.6374704274048</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C22" t="n">
-        <v>791.0757589106297</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D22" t="n">
-        <v>625.1977661121525</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E22" t="n">
-        <v>577.1027676298311</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F22" t="n">
-        <v>400.3957135915873</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G22" t="n">
-        <v>234.8044386174149</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>94.90226430778942</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>94.90226430778942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>181.4819494724793</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>456.2404040436148</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>874.4502858115759</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1333.934152992489</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1776.192956150133</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2195.862205375915</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2543.369099346256</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2711.561874210589</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2711.561874210589</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2711.561874210589</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2465.682427789044</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2187.249427042149</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1900.29391891258</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W22" t="n">
-        <v>1628.267514498871</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X22" t="n">
-        <v>1382.875759832284</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y22" t="n">
-        <v>1155.456089146392</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6224,13 +6224,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
         <v>1463.16863798718</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6704,10 +6704,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6835,22 +6835,22 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886296</v>
+        <v>910.3590448886291</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030283</v>
+        <v>760.880759503028</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666417</v>
+        <v>607.5224631666414</v>
       </c>
       <c r="F34" t="n">
-        <v>447.215116541274</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799779</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832285</v>
+        <v>174.5210820832282</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6871,37 +6871,37 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P34" t="n">
         <v>2663.241147956766</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
         <v>2842.489162174707</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.64750088558</v>
+        <v>2699.647500885579</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.167761876911</v>
+        <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
         <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826199</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825367</v>
+        <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
         <v>1452.959923571655</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.93996029864</v>
+        <v>1241.939960298639</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6938,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>306.120802776629</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7072,13 +7072,13 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>910.359044888629</v>
+        <v>910.3590448886291</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030279</v>
+        <v>760.880759503028</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666413</v>
+        <v>607.5224631666414</v>
       </c>
       <c r="F37" t="n">
         <v>447.2151165412737</v>
@@ -7160,43 +7160,43 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197257</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581808</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>240.5680377815977</v>
+        <v>1397.615872992149</v>
       </c>
       <c r="M38" t="n">
         <v>1397.615872992149</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428595</v>
+        <v>2523.346856428596</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998902</v>
+        <v>3503.526522998903</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832298</v>
+        <v>4331.836397832299</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
@@ -7214,7 +7214,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7245,25 +7245,25 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="O39" t="n">
         <v>283.1715819490133</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936681</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080669</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716802</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463126</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850164</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.826945488267</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7342,40 +7342,40 @@
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976694</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
@@ -7409,28 +7409,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>1172.626669928677</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="M41" t="n">
-        <v>2329.674505139228</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="N41" t="n">
-        <v>3455.405488575675</v>
+        <v>2492.90266652336</v>
       </c>
       <c r="O41" t="n">
-        <v>4435.585155145982</v>
+        <v>3473.082333093667</v>
       </c>
       <c r="P41" t="n">
-        <v>4878.335183790892</v>
+        <v>4301.392207927063</v>
       </c>
       <c r="Q41" t="n">
-        <v>4878.335183790892</v>
+        <v>4847.890993885658</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790892</v>
@@ -7451,7 +7451,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278742</v>
@@ -7485,22 +7485,22 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581785</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581785</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581785</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581785</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581785</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="O42" t="n">
         <v>283.1715819490133</v>
@@ -7555,10 +7555,10 @@
         <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
@@ -7567,28 +7567,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758679</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823634</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579745</v>
@@ -7634,7 +7634,7 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7646,52 +7646,52 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="M44" t="n">
-        <v>1228.461808239092</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2492.90266652336</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3473.082333093667</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4301.392207927063</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4847.890993885658</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581785</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581785</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581785</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581785</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581785</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="O45" t="n">
         <v>283.1715819490133</v>
@@ -7792,10 +7792,10 @@
         <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
         <v>169.8269454882664</v>
@@ -7804,13 +7804,13 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758674</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856838</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7822,7 +7822,7 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
         <v>2842.813139461497</v>
@@ -7834,16 +7834,16 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>584.9855473858893</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.4167745482896</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482896</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>226.8502725038948</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482896</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.4167745482896</v>
       </c>
       <c r="Q6" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,16 +8374,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>223.4729892007681</v>
+        <v>277.1440413107387</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8459,16 +8459,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>445.0855195119906</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>596.0244922827435</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.0244922827435</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8544,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>419.4583812045229</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>596.0244922827435</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8620,7 +8620,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>163.6517202052516</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8696,10 +8696,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>787.6063488555145</v>
+        <v>1142.318287437652</v>
       </c>
       <c r="N11" t="n">
-        <v>1127.601596410346</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K14" t="n">
-        <v>393.7257841191163</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
-        <v>109.7971848772038</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>12.56950007311752</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,10 +9237,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9419,7 +9419,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>393.7257841191158</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234299</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9653,13 +9653,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>531.8762684426488</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,13 +10127,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,13 +10352,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10604,10 +10604,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>144.4457920260403</v>
+        <v>30.75170697498561</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11075,13 +11075,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>447.222251156476</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>30.7517069749847</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.318287437651</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>30.7517069749847</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>177.2070880782912</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>279.0716871501784</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>78.43340698904814</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>153.1263992089501</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>227.712566221594</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>90.92021546249617</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>56.28261003096085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627222</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>81.78272691405309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>100.3344403085002</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627231</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>356.9645199646534</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>227.3655273957975</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627259</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.281019982954604e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-7.114309141798003e-13</v>
+        <v>4.281019982954604e-13</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>-6.501466032204917e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>898046.7608164343</v>
+        <v>707670.4430288849</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>804531.4575288523</v>
+        <v>852125.53697574</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834892.3739831778</v>
+        <v>882486.4534300653</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834892.3739831778</v>
+        <v>882486.4534300653</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834892.3739831777</v>
+        <v>882486.4534300651</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>882486.4534300651</v>
+        <v>882486.453430065</v>
       </c>
     </row>
     <row r="11">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40211.04899178063</v>
+        <v>31686.73625502471</v>
       </c>
       <c r="C2" t="n">
-        <v>40211.04899178063</v>
+        <v>40211.04899178061</v>
       </c>
       <c r="D2" t="n">
         <v>40211.04899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>36023.7966057695</v>
+        <v>38154.8747899585</v>
       </c>
       <c r="F2" t="n">
-        <v>37383.24062611243</v>
+        <v>39514.31881030142</v>
       </c>
       <c r="G2" t="n">
-        <v>37383.24062611243</v>
+        <v>39514.31881030141</v>
       </c>
       <c r="H2" t="n">
-        <v>37383.24062611243</v>
+        <v>39514.31881030141</v>
       </c>
       <c r="I2" t="n">
         <v>39514.31881030141</v>
       </c>
       <c r="J2" t="n">
-        <v>39514.3188103014</v>
+        <v>39514.31881030141</v>
       </c>
       <c r="K2" t="n">
-        <v>39514.3188103014</v>
+        <v>39514.31881030141</v>
       </c>
       <c r="L2" t="n">
         <v>40211.04899178068</v>
@@ -26347,13 +26347,13 @@
         <v>40211.04899178068</v>
       </c>
       <c r="N2" t="n">
-        <v>40211.04899178063</v>
+        <v>40211.04899178069</v>
       </c>
       <c r="O2" t="n">
-        <v>40211.04899178063</v>
+        <v>40211.04899178068</v>
       </c>
       <c r="P2" t="n">
-        <v>40211.04899178069</v>
+        <v>40211.04899178066</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>78545.2414452449</v>
       </c>
       <c r="D3" t="n">
-        <v>53344.06581631859</v>
+        <v>30.57595066340842</v>
       </c>
       <c r="E3" t="n">
-        <v>158717.2285962112</v>
+        <v>164835.5352679186</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510025</v>
+        <v>16812.40227510018</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24459.99848317896</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>62571.54417370998</v>
       </c>
       <c r="L3" t="n">
-        <v>56451.54017170901</v>
+        <v>13013.48053938585</v>
       </c>
       <c r="M3" t="n">
-        <v>132471.1406570149</v>
+        <v>137577.7007378521</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>104296.1325766027</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113526.9335845155</v>
       </c>
       <c r="D4" t="n">
-        <v>129865.9200706958</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>735.1045119022449</v>
+        <v>778.5914659720131</v>
       </c>
       <c r="F4" t="n">
-        <v>762.8454367128342</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="G4" t="n">
-        <v>762.8454367128343</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="H4" t="n">
-        <v>762.8454367128342</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>6148.690207415869</v>
+        <v>6148.690207415865</v>
       </c>
       <c r="M4" t="n">
-        <v>6148.69020741587</v>
+        <v>6148.690207415864</v>
       </c>
       <c r="N4" t="n">
+        <v>16466.62778780234</v>
+      </c>
+      <c r="O4" t="n">
         <v>16466.62778780235</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>16466.62778780234</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16466.62778780236</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74206.53989253601</v>
       </c>
       <c r="D5" t="n">
-        <v>69865.88913079081</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>68558.17706174901</v>
+        <v>74150.69479362157</v>
       </c>
       <c r="F5" t="n">
-        <v>72125.72087391996</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>72125.72087391996</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>72125.72087391996</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,7 +26503,7 @@
         <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="O5" t="n">
         <v>75515.61472608971</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-330573.1330749114</v>
+        <v>-274509.6288764021</v>
       </c>
       <c r="C6" t="n">
-        <v>-188381.8324152015</v>
+        <v>-226067.6659305158</v>
       </c>
       <c r="D6" t="n">
-        <v>-212864.8260260245</v>
+        <v>-147536.4577388911</v>
       </c>
       <c r="E6" t="n">
-        <v>-191986.7135640929</v>
+        <v>-201678.4858776145</v>
       </c>
       <c r="F6" t="n">
-        <v>-52317.72795962061</v>
+        <v>-55845.87880075652</v>
       </c>
       <c r="G6" t="n">
-        <v>-35505.32568452036</v>
+        <v>-39033.47652565636</v>
       </c>
       <c r="H6" t="n">
-        <v>-35505.32568452036</v>
+        <v>-39033.47652565636</v>
       </c>
       <c r="I6" t="n">
-        <v>-63470.25066945267</v>
+        <v>-39033.47652565636</v>
       </c>
       <c r="J6" t="n">
-        <v>-150024.7175312639</v>
+        <v>-150047.9418706465</v>
       </c>
       <c r="K6" t="n">
-        <v>-39010.25218627371</v>
+        <v>-101605.0206993663</v>
       </c>
       <c r="L6" t="n">
-        <v>-101472.3399256049</v>
+        <v>-58034.28029328171</v>
       </c>
       <c r="M6" t="n">
-        <v>-177491.9404109108</v>
+        <v>-182598.5004917479</v>
       </c>
       <c r="N6" t="n">
-        <v>-51771.19352211143</v>
+        <v>-51771.19352211138</v>
       </c>
       <c r="O6" t="n">
-        <v>-51771.19352211143</v>
+        <v>-51771.19352211137</v>
       </c>
       <c r="P6" t="n">
-        <v>-51771.19352211137</v>
+        <v>-51771.1935221114</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26790,22 +26790,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.4167745482896</v>
       </c>
       <c r="D4" t="n">
-        <v>596.0244922827435</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1127.601596410346</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="F4" t="n">
-        <v>1186.278303847368</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1186.278303847368</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1186.278303847368</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>243.1209170281853</v>
       </c>
       <c r="D4" t="n">
-        <v>171.7286347626391</v>
+        <v>0.09843205956735801</v>
       </c>
       <c r="E4" t="n">
-        <v>531.5771041276021</v>
+        <v>552.0685893398663</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702229</v>
+        <v>58.67670743702206</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.98219953737748</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.1209170281853</v>
       </c>
       <c r="L4" t="n">
-        <v>171.7286347626391</v>
+        <v>0.09843205956735801</v>
       </c>
       <c r="M4" t="n">
-        <v>531.5771041276021</v>
+        <v>552.0685893398663</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.1209170281853</v>
       </c>
       <c r="L4" t="n">
-        <v>171.7286347626391</v>
+        <v>0.09843205956735801</v>
       </c>
       <c r="M4" t="n">
-        <v>531.5771041276021</v>
+        <v>552.0685893398663</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702229</v>
+        <v>58.67670743702206</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>67.99016213428303</v>
+        <v>79.91909341533335</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.7945495963367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>152.6957880128246</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>230.0306701181815</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>16.57303481927136</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>103.5373418681632</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>184.1127019730964</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27916,7 +27916,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>369.8422500230731</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.5883141578825</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28062,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.1369608195774</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-4.626503470622263e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-2.779647469158316e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874708</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874771</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874759</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>584.9855473858893</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.4167745482896</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482896</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35021,22 +35021,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>226.8502725038948</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482896</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.4167745482896</v>
       </c>
       <c r="Q6" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>223.4729892007681</v>
+        <v>277.1440413107387</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35179,16 +35179,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>445.0855195119906</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>596.0244922827435</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.0244922827435</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35264,10 +35264,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>419.4583812045229</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>596.0244922827435</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35340,13 +35340,13 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>163.6517202052516</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35416,10 +35416,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>787.6063488555145</v>
+        <v>1142.318287437652</v>
       </c>
       <c r="N11" t="n">
-        <v>1127.601596410346</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512938</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K14" t="n">
-        <v>393.7257841191163</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35738,16 +35738,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
-        <v>109.7971848772038</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645625</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>12.56950007311752</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -36042,7 +36042,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960997</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36136,10 +36136,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>393.7257841191158</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234299</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36373,13 +36373,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36832,13 +36832,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>531.8762684426488</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,13 +36847,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37072,13 +37072,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37236,10 +37236,10 @@
         <v>480.360828703306</v>
       </c>
       <c r="N34" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
         <v>367.2527749552542</v>
@@ -37306,28 +37306,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>144.4457920260403</v>
+        <v>30.75170697498561</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -37710,10 +37710,10 @@
         <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552542</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>447.222251156476</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>30.7517069749847</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778284</v>
       </c>
       <c r="K43" t="n">
         <v>293.7695028348439</v>
@@ -37944,13 +37944,13 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.318287437651</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>30.7517069749847</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778278</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38187,13 +38187,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
